--- a/data/outputs/management_elsevier/107.xlsx
+++ b/data/outputs/management_elsevier/107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS95"/>
+  <dimension ref="A1:BU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84943451771</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>898</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1136,6 +1152,12 @@
           <t>2-s2.0-84943451399</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1412</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1350,6 +1372,12 @@
         <is>
           <t>2-s2.0-84943452248</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>956</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84943451422</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>3510</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1780,6 +1814,12 @@
         <is>
           <t>2-s2.0-84943454180</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>5042</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1992,6 +2032,12 @@
           <t>2-s2.0-84943448525</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>4307</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2211,6 +2257,12 @@
           <t>2-s2.0-84943453007</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5634</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2421,6 +2473,12 @@
         <is>
           <t>2-s2.0-84943455131</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>1275</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2629,6 +2687,12 @@
           <t>2-s2.0-84943453203</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2484</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2845,6 +2909,12 @@
         <is>
           <t>2-s2.0-84943395060</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>1707</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3059,6 +3129,12 @@
           <t>2-s2.0-84943455699</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1604</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3270,6 +3346,12 @@
           <t>2-s2.0-84943457026</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1159</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3480,6 +3562,12 @@
         <is>
           <t>2-s2.0-84943448848</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>1423</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3688,6 +3776,12 @@
           <t>2-s2.0-84943452628</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1983</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3899,6 +3993,12 @@
           <t>2-s2.0-84943449190</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1545</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4118,6 +4218,12 @@
           <t>2-s2.0-84941749170</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2066</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4341,6 +4447,12 @@
           <t>2-s2.0-84943449106</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2317</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4556,6 +4668,12 @@
           <t>2-s2.0-84937971226</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1765</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4771,6 +4889,12 @@
           <t>2-s2.0-84928140159</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3185</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4986,6 +5110,12 @@
           <t>2-s2.0-84937967421</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2912</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5209,6 +5339,12 @@
           <t>2-s2.0-84937971523</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1094</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5424,6 +5560,12 @@
           <t>2-s2.0-84937966869</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>8332</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5635,6 +5777,12 @@
           <t>2-s2.0-84937977606</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>7989</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5850,6 +5998,12 @@
           <t>2-s2.0-84937970994</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4957</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6065,6 +6219,12 @@
           <t>2-s2.0-84937969507</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1428</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6288,6 +6448,12 @@
           <t>2-s2.0-84937972889</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>4251</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6503,6 +6669,12 @@
           <t>2-s2.0-84937969200</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2745</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6718,6 +6890,12 @@
           <t>2-s2.0-84937971119</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>6047</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6932,6 +7110,12 @@
         <is>
           <t>2-s2.0-84937968536</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>4989</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -7144,6 +7328,12 @@
           <t>2-s2.0-84937973971</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3334</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7355,6 +7545,12 @@
           <t>2-s2.0-84937968646</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2605</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7573,6 +7769,12 @@
         <is>
           <t>2-s2.0-84937978963</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>2490</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -7783,6 +7985,12 @@
           <t>2-s2.0-84929890306</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2154</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7994,6 +8202,12 @@
           <t>2-s2.0-84929907044</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1421</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8217,6 +8431,12 @@
           <t>2-s2.0-84929903518</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>3094</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8436,6 +8656,12 @@
           <t>2-s2.0-84929952410</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3943</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8659,6 +8885,12 @@
           <t>2-s2.0-84929853672</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2875</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8874,6 +9106,12 @@
           <t>2-s2.0-84929956752</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2219</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9093,6 +9331,12 @@
           <t>2-s2.0-84929901707</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>13277</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9304,6 +9548,12 @@
           <t>2-s2.0-84929887256</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3143</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9531,6 +9781,12 @@
           <t>2-s2.0-84929956878</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3756</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9746,6 +10002,12 @@
           <t>2-s2.0-84929943315</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1815</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9965,6 +10227,12 @@
           <t>2-s2.0-84929955460</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>7855</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10190,6 +10458,12 @@
           <t>2-s2.0-84929959440</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1665</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10400,6 +10674,12 @@
         <is>
           <t>2-s2.0-84929953985</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>2717</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -10608,6 +10888,12 @@
           <t>2-s2.0-84929947468</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1655</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10819,6 +11105,12 @@
           <t>2-s2.0-84929964112</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>6685</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11033,6 +11325,12 @@
         <is>
           <t>2-s2.0-84926421595</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>22041</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -11241,6 +11539,12 @@
           <t>2-s2.0-84926419212</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3057</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11454,6 +11758,12 @@
           <t>2-s2.0-84926407014</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>6174</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11665,6 +11975,12 @@
           <t>2-s2.0-84926359376</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>12018</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11884,6 +12200,12 @@
           <t>2-s2.0-84926417879</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>2580</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12099,6 +12421,12 @@
           <t>2-s2.0-85028136901</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>8067</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12309,6 +12637,12 @@
         <is>
           <t>2-s2.0-84926407666</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>5696</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -12517,6 +12851,12 @@
           <t>2-s2.0-84926408498</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>3046</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12735,6 +13075,12 @@
         <is>
           <t>2-s2.0-84926407880</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>3464</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -12943,6 +13289,12 @@
           <t>2-s2.0-84926389667</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2392</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13170,6 +13522,12 @@
           <t>2-s2.0-84926289610</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2490</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13384,6 +13742,12 @@
         <is>
           <t>2-s2.0-84926408102</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>3229</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -13592,6 +13956,12 @@
           <t>2-s2.0-84926420966</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3799</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13799,6 +14169,12 @@
           <t>2-s2.0-84926418403</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>5581</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14009,6 +14385,12 @@
         <is>
           <t>2-s2.0-84926361818</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>11796</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -14197,6 +14579,12 @@
       <c r="BQ64" t="inlineStr"/>
       <c r="BR64" t="inlineStr"/>
       <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14420,6 +14808,12 @@
           <t>2-s2.0-84922200103</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>5289</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14634,6 +15028,12 @@
         <is>
           <t>2-s2.0-84922183554</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>7271</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="67">
@@ -14842,6 +15242,12 @@
           <t>2-s2.0-84961291040</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1906</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15052,6 +15458,12 @@
         <is>
           <t>2-s2.0-84922201199</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>2289</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -15260,6 +15672,12 @@
           <t>2-s2.0-85027949448</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1174</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15477,6 +15895,12 @@
           <t>2-s2.0-85027931671</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2412</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15687,6 +16111,12 @@
         <is>
           <t>2-s2.0-85027935849</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>3221</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -15895,6 +16325,12 @@
           <t>2-s2.0-85027946564</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1753</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16120,6 +16556,12 @@
           <t>2-s2.0-85027949673</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>3152</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16347,6 +16789,12 @@
           <t>2-s2.0-84930494412</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>4752</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16558,6 +17006,12 @@
           <t>2-s2.0-84961290424</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>4485</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16774,6 +17228,12 @@
         <is>
           <t>2-s2.0-85027956311</t>
         </is>
+      </c>
+      <c r="BT76" t="n">
+        <v>1419</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -16986,6 +17446,12 @@
           <t>2-s2.0-85028144143</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1835</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17205,6 +17671,12 @@
           <t>2-s2.0-85027934741</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>5029</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17420,6 +17892,12 @@
           <t>2-s2.0-84922032681</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>4011</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17631,6 +18109,12 @@
           <t>2-s2.0-84922644890</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>5929</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17846,6 +18330,12 @@
           <t>2-s2.0-84922627987</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>7131</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18061,6 +18551,12 @@
           <t>2-s2.0-84922667528</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>17862</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18271,6 +18767,12 @@
         <is>
           <t>2-s2.0-84922629238</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>2323</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -18479,6 +18981,12 @@
           <t>2-s2.0-84922669120</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>3385</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18686,6 +19194,12 @@
           <t>2-s2.0-84922616490</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>2258</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18893,6 +19407,12 @@
           <t>2-s2.0-84922591003</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>5404</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19112,6 +19632,12 @@
           <t>2-s2.0-84922636795</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>3659</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19324,6 +19850,12 @@
         <is>
           <t>2-s2.0-84922612960</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>4460</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -19532,6 +20064,12 @@
           <t>2-s2.0-84922630728</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1855</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19747,6 +20285,12 @@
           <t>2-s2.0-84922631143</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>3197</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19961,6 +20505,12 @@
         <is>
           <t>2-s2.0-84922627359</t>
         </is>
+      </c>
+      <c r="BT91" t="n">
+        <v>5340</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="92">
@@ -20169,6 +20719,12 @@
           <t>2-s2.0-84922593178</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>2167</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20384,6 +20940,12 @@
           <t>2-s2.0-84922635901</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>3018</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20602,6 +21164,12 @@
         <is>
           <t>2-s2.0-84922664841</t>
         </is>
+      </c>
+      <c r="BT94" t="n">
+        <v>3776</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -20790,6 +21358,12 @@
       <c r="BQ95" t="inlineStr"/>
       <c r="BR95" t="inlineStr"/>
       <c r="BS95" t="inlineStr"/>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
